--- a/Ciclo II/Planeación y requerimientos/PDMaestroDocumentos.xlsx
+++ b/Ciclo II/Planeación y requerimientos/PDMaestroDocumentos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Escritorio\METFOR\METFOR\Ciclo II\Planeación y requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Ciclo II/Planeación y requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B304DC-4BB2-674C-A896-3086429B5EE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="17260" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
   <si>
     <t>METFOR</t>
   </si>
@@ -84,9 +85,6 @@
     <t>MAESTRO DE DOCUMENTOS</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>NOMBRE</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>TIPO</t>
   </si>
   <si>
-    <t>Bitacora</t>
-  </si>
-  <si>
     <t>VERSIÓN</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
     <t>CICLO</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bitacora</t>
-  </si>
-  <si>
     <t>PDActaConstitucion</t>
   </si>
   <si>
@@ -126,9 +118,6 @@
     <t>Script</t>
   </si>
   <si>
-    <t>Acta de constitucion Lanzamiento</t>
-  </si>
-  <si>
     <t>Control de Asignaciones Lanzamiento</t>
   </si>
   <si>
@@ -141,9 +130,6 @@
     <t>PDControlAsignaciones</t>
   </si>
   <si>
-    <t>PDPresentacion</t>
-  </si>
-  <si>
     <t>PDScript</t>
   </si>
   <si>
@@ -171,24 +157,6 @@
     <t>Líder de Equipo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bitacora de Lanzamiento Líder de Desarrollo</t>
-  </si>
-  <si>
-    <t>Bitacora de  Lanzamiento Líder de Soporte</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Líder de Arquitectura</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Líder de Planeacion</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Líder de Calidad</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Líder de Equipo</t>
-  </si>
-  <si>
     <t>Nombre:</t>
   </si>
   <si>
@@ -201,15 +169,9 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>Registro deocumentos</t>
-  </si>
-  <si>
     <t>Líder de Soporte</t>
   </si>
   <si>
-    <t>Correciones</t>
-  </si>
-  <si>
     <t>Versión: 1,2</t>
   </si>
   <si>
@@ -234,9 +196,6 @@
     <t>Plan de Administración de Riesgos</t>
   </si>
   <si>
-    <t>PDAPlanAdministraciónRiegos</t>
-  </si>
-  <si>
     <t>Planeación y requerimientos</t>
   </si>
   <si>
@@ -246,30 +205,18 @@
     <t>PD CU</t>
   </si>
   <si>
-    <t>Lider de Calidad</t>
-  </si>
-  <si>
-    <t>Lider de Equipo</t>
-  </si>
-  <si>
     <t>Mod. Producto</t>
   </si>
   <si>
     <t>Confirmar pedido</t>
   </si>
   <si>
-    <t>informacion pedido</t>
-  </si>
-  <si>
     <t>tipo producto</t>
   </si>
   <si>
     <t>Eliminar producto</t>
   </si>
   <si>
-    <t>Agergar punto</t>
-  </si>
-  <si>
     <t>Iniciar sesión</t>
   </si>
   <si>
@@ -282,9 +229,6 @@
     <t>Escalabilidad</t>
   </si>
   <si>
-    <t>Confibialidad</t>
-  </si>
-  <si>
     <t>Portabilidad</t>
   </si>
   <si>
@@ -303,20 +247,68 @@
     <t>Administración y requerimientos de software</t>
   </si>
   <si>
-    <t>PD Administracion y Requerimientos</t>
-  </si>
-  <si>
     <t>Especificación de requerimientos de software</t>
   </si>
   <si>
-    <t>PD Especficiación y requerimientos</t>
+    <t>Registro documentos</t>
+  </si>
+  <si>
+    <t>Correcciones</t>
+  </si>
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bitácora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bitácora de Lanzamiento Líder de Desarrollo</t>
+  </si>
+  <si>
+    <t>Bitácora</t>
+  </si>
+  <si>
+    <t>Bitácora de  Lanzamiento Líder de Soporte</t>
+  </si>
+  <si>
+    <t>Bitácora de Lanzamiento Líder de Arquitectura</t>
+  </si>
+  <si>
+    <t>Bitácora de Lanzamiento Líder de Planeación</t>
+  </si>
+  <si>
+    <t>Bitácora de Lanzamiento Líder de Calidad</t>
+  </si>
+  <si>
+    <t>Bitácora de Lanzamiento Líder de Equipo</t>
+  </si>
+  <si>
+    <t>PDAPlanAdministraciónRiesgos</t>
+  </si>
+  <si>
+    <t>Acta de constitución Lanzamiento</t>
+  </si>
+  <si>
+    <t>información pedido</t>
+  </si>
+  <si>
+    <t>Agregar punto</t>
+  </si>
+  <si>
+    <t>Confiabilidad</t>
+  </si>
+  <si>
+    <t>PD Administración y Requerimientos</t>
+  </si>
+  <si>
+    <t>PD Especificación y requerimientos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +729,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,43 +783,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +836,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1211,48 +1203,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="57" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="2"/>
+    <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="4.5" customHeight="1">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="6" spans="2:10" ht="16">
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="4"/>
@@ -1261,17 +1253,17 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="8" spans="2:10" ht="16">
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1"/>
+    <row r="10" spans="2:10">
       <c r="C10" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="6"/>
@@ -1281,7 +1273,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1291,989 +1283,989 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="30" t="s">
+    <row r="13" spans="2:10" ht="16" thickBot="1"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1">
+      <c r="B14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="G14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="36" t="s">
+      <c r="H14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="2:10" ht="24">
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24">
       <c r="B17" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24">
       <c r="B18" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24">
       <c r="B19" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24">
       <c r="B20" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24">
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24">
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F22" s="13">
         <v>2</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24">
       <c r="B23" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F23" s="13">
         <v>2</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24">
       <c r="B24" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13">
         <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24">
       <c r="B25" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="F25" s="13">
         <v>2</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="24">
       <c r="B26" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E26" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24">
       <c r="B27" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24">
       <c r="B28" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="2:8" ht="24">
       <c r="B31" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E31" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
         <v>1</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="24">
       <c r="B32" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="24">
       <c r="B33" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="E33" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="24">
       <c r="B34" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="24">
       <c r="B35" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="24">
       <c r="B36" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F36" s="13">
         <v>1</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="24">
       <c r="B37" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="24">
       <c r="B38" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="24">
       <c r="B39" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="25" thickBot="1">
       <c r="B40" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F40" s="13">
         <v>2</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="25" thickBot="1">
       <c r="B41" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F41" s="13">
         <v>2</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="25" thickBot="1">
       <c r="B42" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F42" s="13">
         <v>2</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="25" thickBot="1">
       <c r="B43" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F43" s="13">
         <v>2</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="25" thickBot="1">
       <c r="B44" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F44" s="13">
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="25" thickBot="1">
       <c r="B45" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F45" s="13">
         <v>2</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="25" thickBot="1">
       <c r="B46" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F46" s="13">
         <v>2</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="25" thickBot="1">
       <c r="B47" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F47" s="13">
         <v>2</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="24">
       <c r="B48" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F48" s="13">
         <v>3</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="24">
       <c r="B49" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F49" s="13">
         <v>3</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="24">
       <c r="B50" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F50" s="13">
         <v>3</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="24">
       <c r="B51" s="19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F51" s="13">
         <v>3</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="24">
       <c r="B52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>88</v>
-      </c>
       <c r="E52" s="13" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F52" s="13">
         <v>3</v>
       </c>
       <c r="G52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="24">
+      <c r="B53" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="26">
+        <v>3</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="24">
+      <c r="B54" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="26">
+        <v>2</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="24">
+      <c r="B55" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H52" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="47">
-        <v>3</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="46" t="s">
+      <c r="E55" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="47">
+      <c r="F55" s="26">
         <v>2</v>
       </c>
-      <c r="G54" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H54" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="47">
-        <v>2</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="24">
         <v>43214</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="24">
         <v>43214</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8">
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B14:H53"/>
+  <autoFilter ref="B14:H53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="H14:H15"/>
@@ -2292,182 +2284,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2495,7 +2487,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2503,7 +2495,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2511,7 +2503,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2519,7 +2511,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2527,7 +2519,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2535,7 +2527,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2543,7 +2535,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2551,7 +2543,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2559,7 +2551,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2567,7 +2559,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2575,7 +2567,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2583,7 +2575,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2591,139 +2583,139 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="38" t="s">
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="38" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="39" t="s">
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39" t="s">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
       <c r="G49" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2731,7 +2723,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2739,7 +2731,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2747,7 +2739,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2755,7 +2747,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2763,7 +2755,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
